--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>https://gbsc.s5asia.com/SG%20VIR%20TEST/Forms/RPA_Posting.aspx</t>
+  </si>
+  <si>
+    <t>https://gbsc.s5asia.com/SG%20VIR%202021/Forms/RPA_POSTING.aspx</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -591,6 +594,9 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>https://gbsc.s5asia.com/SG%20VIR%202021/Forms/RPA_POSTING.aspx</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>192.168.18.38</t>
+  </si>
+  <si>
+    <t>AX_System</t>
+  </si>
+  <si>
+    <t>Microsoft Dynamics AX*LIVE*</t>
+  </si>
+  <si>
+    <t>Excel_ExtractData</t>
+  </si>
+  <si>
+    <t>Data\Temp</t>
   </si>
 </sst>
 </file>
@@ -150,6 +168,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -511,7 +530,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -600,9 +619,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
